--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220019.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221719.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 10:00:49</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:17:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221719.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:17:05</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:49:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225919.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:49:01</t>
+    <t>Informação extraída do SIGBM: 19/12/2022 - 11:59:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225919.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 19/12/2022 - 11:59:23</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:16:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:16:59</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:30:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:30:58</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:49:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:49:01</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:57:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:57:31</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 01:15:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 01:15:20</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 01:33:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 01:33:49</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 01:45:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 01:45:29</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 01:53:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 01:53:54</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:02:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:02:47</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:21:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:21:35</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:31:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:31:52</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:39:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:39:54</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:49:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:49:15</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:57:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:57:26</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:17:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:17:04</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:37:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224820.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:37:51</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:48:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224820.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:48:20</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:56:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:56:50</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:10:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:10:47</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:24:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:24:27</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:33:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:33:17</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:42:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:42:25</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:51:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:51:08</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:59:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:59:55</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:22:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:22:24</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:36:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:36:58</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:46:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:46:39</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:55:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:55:44</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:10:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:10:25</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:27:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:27:03</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:35:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:35:28</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:44:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:44:37</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:53:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:53:18</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:02:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:02:15</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:25:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:25:48</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:39:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:39:09</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:47:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:47:29</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:56:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:56:34</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:10:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:10:38</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:23:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:23:11</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:31:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:31:52</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:40:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:40:46</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:49:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:49:42</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:59:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:59:01</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 09:26:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 09:26:18</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 09:54:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 09:54:47</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 10:15:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 10:15:11</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 10:32:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 10:32:55</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 10:42:47</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -57826,7 +57826,7 @@
         <v>33</v>
       </c>
       <c r="S732" s="0" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="T732" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 10:42:47</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 10:51:15</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -51160,7 +51160,7 @@
         <v>33</v>
       </c>
       <c r="S624" s="0" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="T624" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 10:51:15</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:00:22</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -37197,7 +37197,7 @@
         <v>33</v>
       </c>
       <c r="S397" s="0" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="T397" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:00:22</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:17:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:17:54</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:32:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:32:18</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:42:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:42:31</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:51:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:51:14</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:00:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:00:02</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:20:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:20:39</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:34:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:34:44</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:44:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:44:57</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 12:54:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 12:54:15</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 01:02:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 01:02:56</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 01:32:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 01:32:32</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 01:50:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 01:50:43</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:00:02</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -15430,13 +15430,13 @@
         <v>147</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>48</v>
@@ -15445,7 +15445,7 @@
         <v>254</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="T45" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:00:02</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:15:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222820.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:15:31</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:28:33</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -39467,13 +39467,13 @@
         <v>44</v>
       </c>
       <c r="N434" s="0" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="O434" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P434" s="0" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="Q434" s="0" t="s">
         <v>48</v>
@@ -39482,7 +39482,7 @@
         <v>154</v>
       </c>
       <c r="S434" s="0" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="T434" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222820.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223820.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:28:33</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:38:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223820.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:38:02</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:47:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:47:09</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 02:56:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 02:56:30</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:12:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:12:21</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:32:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:32:09</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:44:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:44:54</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 03:53:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 03:53:14</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:02:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:02:56</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:17:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:17:58</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:27:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:27:50</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:36:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:36:08</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:45:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:45:08</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 04:53:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 04:53:56</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:02:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:02:46</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:24:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:24:10</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:33:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:33:04</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:42:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:42:47</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:50:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:50:55</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 05:59:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 05:59:52</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:15:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:15:52</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:27:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:27:45</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:37:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224520.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:37:57</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:45:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224520.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225420.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:45:37</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 06:54:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225420.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 06:54:23</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:03:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222220.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:03:19</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:22:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222220.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:22:23</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:33:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:33:12</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:41:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225020.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:41:49</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:50:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225020.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:50:37</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 07:59:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225920.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 07:59:54</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:16:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221620.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222820.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:16:53</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:28:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222820.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223820.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:28:46</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:38:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223820.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224720.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:38:52</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:47:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-20.xlsx
+++ b/sigbm_download_2022-12-20.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224720.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225620.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 08:47:29</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 08:56:14</t>
   </si>
   <si>
     <t>ID Barragem</t>
